--- a/STAR_template.xlsx
+++ b/STAR_template.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="1601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="1602">
   <si>
     <t>Year</t>
   </si>
@@ -4827,7 +4827,10 @@
     <t>Henslow's swimming crab</t>
   </si>
   <si>
-    <t>2.1.1</t>
+    <t>2.1.2</t>
+  </si>
+  <si>
+    <t>XSA is a VPA-type model</t>
   </si>
 </sst>
 </file>
@@ -9173,7 +9176,10 @@
       </c>
       <c r="B15" s="21"/>
       <c r="C15" s="33"/>
-      <c r="D15" s="7"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="58" t="s">
+        <v>1601</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15" customHeight="1" thickBot="1">
       <c r="A16" s="52" t="s">
@@ -9266,7 +9272,7 @@
         <v>1068</v>
       </c>
       <c r="I22" s="79" t="str">
-        <f>IF(TimeSeries!O5&lt;&gt;"", IF(VPA_Model[VPA-Type Model]="Yes", AVERAGE(TimeSeries!O3:O5), TimeSeries!O5), "")</f>
+        <f>IF(TimeSeries!O5&lt;&gt;"", IF(VPA_Model[VPA-Type Model]="Yes", AVERAGE(TimeSeries!O3:O5), IF(VPA_Model[VPA-Type Model]="No", TimeSeries!O5, "")), "")</f>
         <v/>
       </c>
       <c r="J22" s="8"/>
@@ -9293,7 +9299,7 @@
         <v>1069</v>
       </c>
       <c r="I23" s="79" t="str">
-        <f>IF(TimeSeries!F5&lt;&gt;"", IF(VPA_Model[VPA-Type Model]="Yes", AVERAGE(TimeSeries!F3:F5), TimeSeries!F5), "")</f>
+        <f>IF(TimeSeries!F5&lt;&gt;"", IF(VPA_Model[VPA-Type Model]="Yes", AVERAGE(TimeSeries!F3:F5), IF(VPA_Model[VPA-Type Model]="No", TimeSeries!F5, "")), "")</f>
         <v/>
       </c>
     </row>
@@ -17347,27 +17353,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </TaxKeywordTaxHTField>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F3E97264D6E15549B125B6396426526E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="bc22437fdaf86e7324497979021bfdd2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d5313c0-c1e6-4122-afa9-da1ccdba405d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9de19027091ca358749aa7ba6a25f7eb" ns2:_="">
     <xsd:import namespace="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
@@ -17519,10 +17504,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxCatchAllLabel xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <TaxKeywordTaxHTField xmlns="4d5313c0-c1e6-4122-afa9-da1ccdba405d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </TaxKeywordTaxHTField>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8D109C5-D0A2-4A42-BB20-315BD05AA2B5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C92C4D-578B-421C-B3A1-ED10B6ED939E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -17544,19 +17560,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91C92C4D-578B-421C-B3A1-ED10B6ED939E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F8D109C5-D0A2-4A42-BB20-315BD05AA2B5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="4d5313c0-c1e6-4122-afa9-da1ccdba405d"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>